--- a/Library preparation/PCR_mix_calculator.xlsx
+++ b/Library preparation/PCR_mix_calculator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC.5062093\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Usuario\Documents\GitHub\Culturomics\Library preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D8BF20-F4FC-41A5-823A-EA61B7A9B34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0252EC-8E1A-440A-B465-6180000A2BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25800" yWindow="4860" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mix calculation" sheetId="3" r:id="rId1"/>
@@ -44,12 +44,6 @@
     <t>Vol final</t>
   </si>
   <si>
-    <t>Unidades</t>
-  </si>
-  <si>
-    <t>[Inicial]</t>
-  </si>
-  <si>
     <t>[Final]</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
     <t>Q5 Reac Buffer</t>
   </si>
   <si>
-    <t>dNTP (Biotools)</t>
-  </si>
-  <si>
     <t>mM</t>
   </si>
   <si>
@@ -92,16 +83,25 @@
     <t>Primer F</t>
   </si>
   <si>
-    <t>Primera PCR</t>
-  </si>
-  <si>
-    <t>Segunda PCR</t>
-  </si>
-  <si>
     <t>Primers P5&amp;P7*</t>
   </si>
   <si>
-    <t>*Los pone el robot, aunque hay que tenerlos en cuenta aquí para preparar bien la mix con las concentraciones adecuadas</t>
+    <t>First PCR</t>
+  </si>
+  <si>
+    <t>[Initial]</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>dNTP</t>
+  </si>
+  <si>
+    <t>Second PCR</t>
+  </si>
+  <si>
+    <t>*The robot provides them, although they must be taken into account here to properly prepare the mix with the appropriate concentrations.</t>
   </si>
 </sst>
 </file>
@@ -511,21 +511,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
-    <col min="6" max="6" width="22.26953125" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -534,10 +534,10 @@
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -548,16 +548,16 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="E3" s="6" t="str">
         <f>CONCATENATE("Vol (",E2," µl)")</f>
@@ -569,12 +569,12 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="9">
         <v>2</v>
@@ -592,9 +592,9 @@
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>0</v>
@@ -615,12 +615,12 @@
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="9">
         <v>10</v>
@@ -638,12 +638,12 @@
       </c>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9">
         <v>10</v>
@@ -661,12 +661,12 @@
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" s="9">
         <v>10</v>
@@ -684,15 +684,15 @@
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" s="9">
         <v>10</v>
@@ -701,22 +701,22 @@
         <v>5</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E10" s="15">
         <f>E2-SUM(E4:E9)</f>
@@ -728,13 +728,13 @@
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F11" s="2">
         <f>SUM(F4:F10)</f>
@@ -742,7 +742,7 @@
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -751,12 +751,12 @@
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K15" s="23"/>
     </row>
-    <row r="16" spans="1:11" ht="20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -765,10 +765,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -779,16 +779,16 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="E18" s="6" t="str">
         <f>CONCATENATE("Vol (",E17," µl)")</f>
@@ -799,12 +799,12 @@
         <v>Pool 109X</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" s="9">
         <v>2</v>
@@ -821,9 +821,9 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>0</v>
@@ -843,12 +843,12 @@
         <v>545</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C21" s="9">
         <v>10</v>
@@ -865,12 +865,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C22" s="9">
         <v>6</v>
@@ -883,18 +883,18 @@
         <v>2</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="9">
         <v>10</v>
@@ -903,21 +903,21 @@
         <v>3</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E24" s="15">
         <f>E17-SUM(E19:E23)</f>
@@ -928,23 +928,23 @@
         <v>1498.75</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F25" s="20">
         <f>SUM(F19:F24)</f>
         <v>2180</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E27" s="19"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
         <v>21</v>
       </c>
